--- a/论文记录.xlsx
+++ b/论文记录.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkm\Desktop\实验室\研究方向\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室\研究方向\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE854041-96DC-4C20-90B4-5224062656DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC0B07A-D01F-471B-ADEE-A9374F1BFAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALPHAEDIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>定位再编辑（转换空间）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,6 +114,74 @@
   </si>
   <si>
     <t>Edit Less, Achieve More: Dynamic Sparse Neuron Masking for Lifelong Knowledge Editing in LLMs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlphaEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多模态大模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiveEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVPR 2025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lifelong Knowledge Editing for Vision Language Models with  Low-Rank Mixture-of-Experts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL2025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多模态大模型benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC-MKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC-MKE: A Fine-Grained Multimodal Knowledge Editing Benchmark  Emphasizing Modality Consistency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arXiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM MM2025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多模态大模型神经元的机理分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deciphering Functions of Neurons in Vision-Language Models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACE: Attribution-Controlled Knowledge Editing for Multi-hop Factual Recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEAM: A Semantic-Level Knowledge Editing Framework for Large Language Models</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -487,7 +552,7 @@
     <col min="1" max="1" width="11.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="132.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -553,27 +618,27 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
@@ -581,16 +646,83 @@
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
